--- a/matuik.xlsx
+++ b/matuik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\web-tufe-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA9F88-7DD3-4C33-A503-5619C4F862F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFAD6E0-C9B6-4E21-AEEB-F0B88951A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Gösterge</t>
   </si>
@@ -119,13 +119,16 @@
   </si>
   <si>
     <t>Haberleşme hizmetleri</t>
+  </si>
+  <si>
+    <t>2025-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,112 +573,127 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="C2" s="8">
-        <v>2.48</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D2" s="8">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="E2" s="8">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="F2" s="8">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G2" s="8">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="H2" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="C3" s="8">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="D3" s="8">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="E3" s="8">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F3" s="8">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G3" s="8">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H3" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="8">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C4" s="8">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="D4" s="8">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="E4" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F4" s="8">
-        <v>2.19</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G4" s="8">
-        <v>2.2599999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="H4" s="8">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.87</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="8">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="C5" s="8">
         <v>2.3199999999999998</v>
       </c>
       <c r="D5" s="8">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="E5" s="8">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="F5" s="8">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G5" s="8">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H5" s="8">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.36</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -694,112 +718,127 @@
       <c r="H6" s="8">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="8">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="C7" s="8">
         <v>3.47</v>
       </c>
       <c r="D7" s="8">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="E7" s="8">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="F7" s="8">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="G7" s="8">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="H7" s="8">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+        <v>4.47</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8">
-        <v>-1.37</v>
+        <v>-1.35</v>
       </c>
       <c r="C8" s="8">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="D8" s="8">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="E8" s="8">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="F8" s="8">
-        <v>2.1</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="H8" s="8">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>5.26</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>-6.71</v>
+        <v>-6.67</v>
       </c>
       <c r="C9" s="8">
-        <v>15.01</v>
+        <v>15.06</v>
       </c>
       <c r="D9" s="8">
-        <v>-1.06</v>
+        <v>-1.02</v>
       </c>
       <c r="E9" s="8">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="F9" s="8">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="G9" s="8">
-        <v>-2.4</v>
+        <v>-2.33</v>
       </c>
       <c r="H9" s="8">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>6.41</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="C10" s="8">
-        <v>2.2200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D10" s="8">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="E10" s="8">
-        <v>-0.28999999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="F10" s="8">
-        <v>1.1399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="G10" s="8">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="H10" s="8">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+        <v>4.43</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -824,8 +863,11 @@
       <c r="H11" s="8">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="I11" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -850,8 +892,11 @@
       <c r="H12" s="8">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="I12" s="8">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -876,13 +921,16 @@
       <c r="H13" s="8">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="I13" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="C14" s="8">
         <v>2.21</v>
@@ -897,65 +945,74 @@
         <v>1.26</v>
       </c>
       <c r="G14" s="8">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H14" s="8">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+        <v>1.38</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="8">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="C15" s="8">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="D15" s="8">
         <v>2.78</v>
       </c>
       <c r="E15" s="8">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F15" s="8">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G15" s="8">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H15" s="8">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.44</v>
+        <v>-0.4</v>
       </c>
       <c r="C16" s="8">
-        <v>-0.32</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D16" s="8">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F16" s="8">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G16" s="8">
-        <v>-0.69</v>
+        <v>-0.64</v>
       </c>
       <c r="H16" s="8">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -980,8 +1037,11 @@
       <c r="H17" s="8">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I17" s="8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1006,8 +1066,11 @@
       <c r="H18" s="8">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="I18" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1032,8 +1095,11 @@
       <c r="H19" s="8">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="8">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1058,60 +1124,69 @@
       <c r="H20" s="8">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="8">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="C21" s="8">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="D21" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.58</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3.24</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="I21" s="8">
         <v>2.84</v>
       </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2.96</v>
-      </c>
-      <c r="G21" s="8">
-        <v>3.19</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="8">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="C22" s="8">
-        <v>4.2</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D22" s="8">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="E22" s="8">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F22" s="8">
-        <v>4.28</v>
+        <v>4.22</v>
       </c>
       <c r="G22" s="8">
-        <v>4.1100000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="H22" s="8">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+        <v>3.71</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1119,51 +1194,57 @@
         <v>2.35</v>
       </c>
       <c r="C23" s="8">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D23" s="8">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="E23" s="8">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="F23" s="8">
-        <v>2.12</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G23" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="H23" s="8">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+        <v>2.68</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>3.87</v>
+        <v>4.03</v>
       </c>
       <c r="C24" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2.08</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="I24" s="8">
         <v>2.69</v>
       </c>
-      <c r="D24" s="8">
-        <v>2.34</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2.86</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1.83</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -1188,34 +1269,40 @@
       <c r="H25" s="8">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="9">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="C26" s="9">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="D26" s="9">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="E26" s="9">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="F26" s="9">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="G26" s="9">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="H26" s="9">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.72</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1225,6 +1312,7 @@
       <c r="H27" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/matuik.xlsx
+++ b/matuik.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\web-tufe-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFAD6E0-C9B6-4E21-AEEB-F0B88951A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38DEC32-8FF8-42CA-85C2-F555F33B110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Gösterge</t>
   </si>
@@ -122,6 +127,9 @@
   </si>
   <si>
     <t>2025-09</t>
+  </si>
+  <si>
+    <t>2025-10</t>
   </si>
 </sst>
 </file>
@@ -540,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
@@ -548,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,16 +584,19 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C2" s="8">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="D2" s="8">
         <v>2.52</v>
@@ -600,716 +611,792 @@
         <v>2.67</v>
       </c>
       <c r="H2" s="8">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="I2" s="8">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.83</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2.69</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1.99</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2.27</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="8">
-        <v>2.14</v>
+        <v>2.59</v>
       </c>
       <c r="C4" s="8">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="D4" s="8">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="E4" s="8">
-        <v>2.2200000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F4" s="8">
-        <v>2.2200000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="G4" s="8">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="H4" s="8">
-        <v>1.87</v>
+        <v>2.21</v>
       </c>
       <c r="I4" s="8">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.58</v>
+      </c>
+      <c r="J4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="8">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="C5" s="8">
-        <v>2.3199999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="D5" s="8">
-        <v>2.36</v>
+        <v>2.84</v>
       </c>
       <c r="E5" s="8">
-        <v>1.71</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F5" s="8">
-        <v>1.52</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G5" s="8">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="H5" s="8">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="I5" s="8">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>3.58</v>
+        <v>1.62</v>
       </c>
       <c r="C6" s="8">
-        <v>0.03</v>
+        <v>2.31</v>
       </c>
       <c r="D6" s="8">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="E6" s="8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="F6" s="8">
-        <v>2.27</v>
+        <v>1.52</v>
       </c>
       <c r="G6" s="8">
-        <v>7.35</v>
+        <v>2.39</v>
       </c>
       <c r="H6" s="8">
-        <v>0.64</v>
+        <v>2.34</v>
       </c>
       <c r="I6" s="8">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.64</v>
+      </c>
+      <c r="J6">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="C7" s="8">
-        <v>3.47</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="8">
-        <v>1.3</v>
+        <v>4.32</v>
       </c>
       <c r="E7" s="8">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="F7" s="8">
-        <v>1.55</v>
+        <v>2.27</v>
       </c>
       <c r="G7" s="8">
-        <v>1.17</v>
+        <v>7.35</v>
       </c>
       <c r="H7" s="8">
-        <v>4.47</v>
+        <v>0.64</v>
       </c>
       <c r="I7" s="8">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+      <c r="J7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8">
-        <v>-1.35</v>
+        <v>1.96</v>
       </c>
       <c r="C8" s="8">
-        <v>7.2</v>
+        <v>3.45</v>
       </c>
       <c r="D8" s="8">
-        <v>0.42</v>
+        <v>1.29</v>
       </c>
       <c r="E8" s="8">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="F8" s="8">
-        <v>2.2599999999999998</v>
+        <v>1.55</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.04</v>
+        <v>1.18</v>
       </c>
       <c r="H8" s="8">
-        <v>5.26</v>
+        <v>4.45</v>
       </c>
       <c r="I8" s="8">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J8">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>-6.67</v>
+        <v>-1.35</v>
       </c>
       <c r="C9" s="8">
-        <v>15.06</v>
+        <v>7.17</v>
       </c>
       <c r="D9" s="8">
-        <v>-1.02</v>
+        <v>0.39</v>
       </c>
       <c r="E9" s="8">
-        <v>4.57</v>
+        <v>1.84</v>
       </c>
       <c r="F9" s="8">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="G9" s="8">
-        <v>-2.33</v>
+        <v>-0.02</v>
       </c>
       <c r="H9" s="8">
-        <v>6.41</v>
+        <v>5.22</v>
       </c>
       <c r="I9" s="8">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>5.83</v>
+      </c>
+      <c r="J9">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8">
-        <v>2.39</v>
+        <v>-6.67</v>
       </c>
       <c r="C10" s="8">
-        <v>2.1800000000000002</v>
+        <v>15.04</v>
       </c>
       <c r="D10" s="8">
-        <v>1.45</v>
+        <v>-1.06</v>
       </c>
       <c r="E10" s="8">
-        <v>-0.05</v>
+        <v>4.54</v>
       </c>
       <c r="F10" s="8">
-        <v>1.38</v>
+        <v>3.47</v>
       </c>
       <c r="G10" s="8">
-        <v>1.68</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="H10" s="8">
-        <v>4.43</v>
+        <v>6.36</v>
       </c>
       <c r="I10" s="8">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+        <v>5.16</v>
+      </c>
+      <c r="J10">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8">
-        <v>4.7</v>
+        <v>2.37</v>
       </c>
       <c r="C11" s="8">
-        <v>0.56999999999999995</v>
+        <v>2.15</v>
       </c>
       <c r="D11" s="8">
-        <v>2.04</v>
+        <v>1.44</v>
       </c>
       <c r="E11" s="8">
-        <v>1.39</v>
+        <v>-0.05</v>
       </c>
       <c r="F11" s="8">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
       <c r="G11" s="8">
-        <v>2.1800000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="H11" s="8">
-        <v>3.83</v>
+        <v>4.41</v>
       </c>
       <c r="I11" s="8">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>6.33</v>
+      </c>
+      <c r="J11">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="8">
-        <v>5.0199999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C12" s="8">
-        <v>0.18</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D12" s="8">
-        <v>2.61</v>
+        <v>2.04</v>
       </c>
       <c r="E12" s="8">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="F12" s="8">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="G12" s="8">
-        <v>1.43</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H12" s="8">
-        <v>5.77</v>
+        <v>3.83</v>
       </c>
       <c r="I12" s="8">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>3.9</v>
+      </c>
+      <c r="J12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <v>4.53</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="C13" s="8">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="D13" s="8">
-        <v>1.74</v>
+        <v>2.61</v>
       </c>
       <c r="E13" s="8">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="F13" s="8">
-        <v>0.71</v>
+        <v>1.46</v>
       </c>
       <c r="G13" s="8">
-        <v>2.57</v>
+        <v>1.43</v>
       </c>
       <c r="H13" s="8">
-        <v>2.82</v>
+        <v>5.77</v>
       </c>
       <c r="I13" s="8">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+        <v>2.97</v>
+      </c>
+      <c r="J13">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8">
-        <v>0.78</v>
+        <v>4.53</v>
       </c>
       <c r="C14" s="8">
-        <v>2.21</v>
+        <v>0.77</v>
       </c>
       <c r="D14" s="8">
-        <v>2.5299999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="E14" s="8">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="F14" s="8">
-        <v>1.26</v>
+        <v>0.71</v>
       </c>
       <c r="G14" s="8">
-        <v>1.7</v>
+        <v>2.57</v>
       </c>
       <c r="H14" s="8">
-        <v>1.38</v>
+        <v>2.82</v>
       </c>
       <c r="I14" s="8">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J14">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="8">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="C15" s="8">
-        <v>1.33</v>
+        <v>2.19</v>
       </c>
       <c r="D15" s="8">
-        <v>2.78</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E15" s="8">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="F15" s="8">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="G15" s="8">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="H15" s="8">
-        <v>0.82</v>
+        <v>1.36</v>
       </c>
       <c r="I15" s="8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>1.48</v>
+      </c>
+      <c r="J15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.4</v>
+        <v>0.77</v>
       </c>
       <c r="C16" s="8">
-        <v>-0.28999999999999998</v>
+        <v>1.31</v>
       </c>
       <c r="D16" s="8">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="E16" s="8">
-        <v>0.32</v>
+        <v>1.81</v>
       </c>
       <c r="F16" s="8">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="G16" s="8">
-        <v>-0.64</v>
+        <v>1.18</v>
       </c>
       <c r="H16" s="8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I16" s="8">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="J16">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="84" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="8">
-        <v>1.1100000000000001</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C17" s="8">
-        <v>1.63</v>
+        <v>-0.39</v>
       </c>
       <c r="D17" s="8">
-        <v>3.43</v>
+        <v>1.96</v>
       </c>
       <c r="E17" s="8">
-        <v>2.73</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F17" s="8">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="G17" s="8">
-        <v>1.57</v>
+        <v>-0.84</v>
       </c>
       <c r="H17" s="8">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="I17" s="8">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>1.39</v>
+      </c>
+      <c r="J17">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="8">
-        <v>1.26</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C18" s="8">
-        <v>2.09</v>
+        <v>1.63</v>
       </c>
       <c r="D18" s="8">
-        <v>2.38</v>
+        <v>3.43</v>
       </c>
       <c r="E18" s="8">
-        <v>1.49</v>
+        <v>2.73</v>
       </c>
       <c r="F18" s="8">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="G18" s="8">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="H18" s="8">
-        <v>1.01</v>
+        <v>0.73</v>
       </c>
       <c r="I18" s="8">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+      <c r="J18">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="8">
-        <v>-0.01</v>
+        <v>1.26</v>
       </c>
       <c r="C19" s="8">
-        <v>9.9600000000000009</v>
+        <v>2.09</v>
       </c>
       <c r="D19" s="8">
-        <v>-0.06</v>
+        <v>2.38</v>
       </c>
       <c r="E19" s="8">
-        <v>0.06</v>
+        <v>1.49</v>
       </c>
       <c r="F19" s="8">
-        <v>0.14000000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="G19" s="8">
-        <v>5.69</v>
+        <v>2.02</v>
       </c>
       <c r="H19" s="8">
-        <v>6.04</v>
+        <v>1.01</v>
       </c>
       <c r="I19" s="8">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+      <c r="J19">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="8">
-        <v>4.78</v>
+        <v>-0.01</v>
       </c>
       <c r="C20" s="8">
-        <v>1.33</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D20" s="8">
-        <v>7.04</v>
+        <v>-0.06</v>
       </c>
       <c r="E20" s="8">
-        <v>2.65</v>
+        <v>0.06</v>
       </c>
       <c r="F20" s="8">
-        <v>4.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="8">
-        <v>1.91</v>
+        <v>5.69</v>
       </c>
       <c r="H20" s="8">
-        <v>0.22</v>
+        <v>6.04</v>
       </c>
       <c r="I20" s="8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+      <c r="J20">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="8">
-        <v>3.4</v>
+        <v>4.78</v>
       </c>
       <c r="C21" s="8">
-        <v>2.83</v>
+        <v>1.33</v>
       </c>
       <c r="D21" s="8">
-        <v>2.87</v>
+        <v>7.04</v>
       </c>
       <c r="E21" s="8">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F21" s="8">
-        <v>3</v>
+        <v>4.17</v>
       </c>
       <c r="G21" s="8">
-        <v>3.24</v>
+        <v>1.91</v>
       </c>
       <c r="H21" s="8">
-        <v>2.77</v>
+        <v>0.22</v>
       </c>
       <c r="I21" s="8">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.7</v>
+      </c>
+      <c r="J21">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="8">
-        <v>5.29</v>
+        <v>3.4</v>
       </c>
       <c r="C22" s="8">
-        <v>4.1900000000000004</v>
+        <v>2.84</v>
       </c>
       <c r="D22" s="8">
-        <v>4.13</v>
+        <v>2.88</v>
       </c>
       <c r="E22" s="8">
-        <v>4.04</v>
+        <v>2.59</v>
       </c>
       <c r="F22" s="8">
-        <v>4.22</v>
+        <v>3.01</v>
       </c>
       <c r="G22" s="8">
-        <v>4.07</v>
+        <v>3.26</v>
       </c>
       <c r="H22" s="8">
-        <v>3.71</v>
+        <v>2.77</v>
       </c>
       <c r="I22" s="8">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+        <v>2.86</v>
+      </c>
+      <c r="J22">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>2.35</v>
+        <v>5.28</v>
       </c>
       <c r="C23" s="8">
-        <v>2.2599999999999998</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D23" s="8">
-        <v>2.31</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E23" s="8">
-        <v>1.67</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F23" s="8">
-        <v>2.1800000000000002</v>
+        <v>4.24</v>
       </c>
       <c r="G23" s="8">
-        <v>2.54</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H23" s="8">
-        <v>2.68</v>
+        <v>3.73</v>
       </c>
       <c r="I23" s="8">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>3.36</v>
+      </c>
+      <c r="J23">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>4.03</v>
+        <v>2.35</v>
       </c>
       <c r="C24" s="8">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="D24" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="E24" s="8">
-        <v>3.1</v>
+        <v>1.66</v>
       </c>
       <c r="F24" s="8">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="G24" s="8">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="H24" s="8">
-        <v>1.64</v>
+        <v>2.66</v>
       </c>
       <c r="I24" s="8">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+        <v>2.72</v>
+      </c>
+      <c r="J24">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="8">
-        <v>3.66</v>
+        <v>4.22</v>
       </c>
       <c r="C25" s="8">
-        <v>0.55000000000000004</v>
+        <v>3.07</v>
       </c>
       <c r="D25" s="8">
-        <v>0.38</v>
+        <v>2.85</v>
       </c>
       <c r="E25" s="8">
-        <v>-0.14000000000000001</v>
+        <v>3.46</v>
       </c>
       <c r="F25" s="8">
-        <v>1.48</v>
+        <v>3.24</v>
       </c>
       <c r="G25" s="8">
-        <v>5.67</v>
+        <v>2.57</v>
       </c>
       <c r="H25" s="8">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="I25" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.13</v>
+      </c>
+      <c r="J25">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="9">
-        <v>2.75</v>
+        <v>3.66</v>
       </c>
       <c r="C26" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5.67</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J26">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="G27" s="9">
         <v>2.9</v>
       </c>
-      <c r="D26" s="9">
-        <v>3.11</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2.75</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="G26" s="9">
-        <v>2.98</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="I26" s="9">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I27">
+        <v>2.97</v>
+      </c>
+      <c r="J27">
+        <v>2.86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/matuik.xlsx
+++ b/matuik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\web-tufe-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49033F05-7638-4B51-B43A-2C4A0643D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6046F-A597-4940-B032-BDD18AA61C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,12 +251,12 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +564,13 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -605,855 +608,888 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2.48</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="15">
+        <v>2.17</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.46</v>
+      </c>
+      <c r="D2" s="15">
         <v>2.52</v>
       </c>
-      <c r="E2" s="8">
-        <v>1.99</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="15">
+        <v>1.98</v>
+      </c>
+      <c r="F2" s="15">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="15">
         <v>2.67</v>
       </c>
-      <c r="H2" s="8">
-        <v>2.48</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2.71</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2.0699999999999998</v>
+      <c r="H2" s="15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2.69</v>
+      </c>
+      <c r="J2" s="15">
+        <v>2.06</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>2.59</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1.82</v>
       </c>
-      <c r="D3" s="15">
-        <v>2.69</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1.99</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="D3" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
         <v>2.27</v>
       </c>
-      <c r="H3" s="15">
-        <v>2.21</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2.58</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="H3" s="14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="J3" s="14">
         <v>2.04</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>2.13</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2.11</v>
       </c>
-      <c r="D4" s="15">
-        <v>2.84</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F4" s="15">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="D4" s="14">
+        <v>2.85</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="G4" s="14">
         <v>2.29</v>
       </c>
-      <c r="H4" s="15">
-        <v>1.86</v>
-      </c>
-      <c r="I4" s="15">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1.93</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="H4" s="14">
+        <v>1.87</v>
+      </c>
+      <c r="I4" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1.94</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
-        <v>1.62</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2.31</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="12">
+        <v>1.61</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D5" s="12">
         <v>2.35</v>
       </c>
-      <c r="E5" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="12">
+        <v>1.69</v>
+      </c>
+      <c r="F5" s="12">
         <v>1.52</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2.39</v>
       </c>
-      <c r="H5" s="13">
-        <v>2.34</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2.64</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1.67</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="H5" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>3.58</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>0.03</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>4.32</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>2.15</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>2.27</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>7.35</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>0.64</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>1.24</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>1.28</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="9">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13">
-        <v>1.96</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3.45</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1.29</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1.59</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1.55</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1.18</v>
-      </c>
-      <c r="H7" s="13">
-        <v>4.45</v>
-      </c>
-      <c r="I7" s="13">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="J7" s="13">
-        <v>2.63</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.54</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4.38</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="K7" s="9">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
-        <v>-1.35</v>
-      </c>
-      <c r="C8" s="13">
-        <v>7.17</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1.84</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2.27</v>
-      </c>
-      <c r="G8" s="13">
-        <v>-0.02</v>
-      </c>
-      <c r="H8" s="13">
-        <v>5.22</v>
-      </c>
-      <c r="I8" s="13">
-        <v>5.83</v>
-      </c>
-      <c r="J8" s="13">
-        <v>2.78</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>-1.4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7.02</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.07</v>
+      </c>
+      <c r="I8" s="12">
+        <v>5.58</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2.61</v>
+      </c>
+      <c r="K8" s="9">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13">
-        <v>-6.67</v>
-      </c>
-      <c r="C9" s="13">
-        <v>15.04</v>
-      </c>
-      <c r="D9" s="13">
-        <v>-1.06</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4.54</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3.47</v>
-      </c>
-      <c r="G9" s="13">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="H9" s="13">
-        <v>6.36</v>
-      </c>
-      <c r="I9" s="13">
-        <v>5.16</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>-6.6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>15.01</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3.59</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6.27</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4.97</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="K9" s="9">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13">
-        <v>2.37</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2.15</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1.44</v>
-      </c>
-      <c r="E10" s="13">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1.38</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1.67</v>
-      </c>
-      <c r="H10" s="13">
-        <v>4.41</v>
-      </c>
-      <c r="I10" s="13">
-        <v>6.33</v>
-      </c>
-      <c r="J10" s="13">
-        <v>4.47</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.29</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4.21</v>
+      </c>
+      <c r="I10" s="12">
+        <v>6.03</v>
+      </c>
+      <c r="J10" s="12">
+        <v>4.26</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>4.7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>2.04</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>1.39</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>0.97</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>3.83</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>3.9</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="K11" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.18</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>2.61</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>1.17</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>1.46</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>1.43</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>5.77</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>2.97</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>2.76</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="K12" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>4.53</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.77</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1.74</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>1.51</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0.71</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>2.57</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>2.82</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>2.38</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="K13" s="9">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2.19</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.63</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="B14" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.27</v>
+      </c>
+      <c r="G14" s="12">
         <v>1.66</v>
       </c>
-      <c r="H14" s="13">
-        <v>1.36</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1.48</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1.05</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="H14" s="12">
+        <v>1.38</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.51</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>0.77</v>
       </c>
-      <c r="C15" s="13">
-        <v>1.31</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2.78</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.81</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="C15" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2.81</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="G15" s="12">
         <v>1.18</v>
       </c>
-      <c r="H15" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.79</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="H15" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1.63</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C16" s="13">
-        <v>-0.39</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1.96</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.19</v>
-      </c>
-      <c r="G16" s="13">
-        <v>-0.84</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1.39</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0.69</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="C16" s="12">
+        <v>-0.36</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.27</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-0.83</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>1.63</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>3.43</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>2.73</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>1.24</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>1.57</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>0.73</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>2.1</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>0.91</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K17" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>1.26</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>2.09</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>2.38</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>1.49</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>1.59</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>2.02</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>1.01</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>0.95</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>0.67</v>
       </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="K18" s="9">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>-0.01</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>-0.06</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.06</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>5.69</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>6.04</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>-0.03</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>2.42</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="9">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>4.78</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>1.33</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>7.04</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>2.65</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>4.17</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>1.91</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>0.22</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>5.7</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>5.47</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="9">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>3.4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>2.84</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>2.88</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>2.59</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>3.01</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>3.26</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>2.77</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>2.86</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>2.88</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="9">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>5.28</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E22" s="13">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="12">
+        <v>4.05</v>
+      </c>
+      <c r="F22" s="12">
         <v>4.24</v>
       </c>
-      <c r="G22" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H22" s="13">
-        <v>3.73</v>
-      </c>
-      <c r="I22" s="13">
-        <v>3.36</v>
-      </c>
-      <c r="J22" s="13">
-        <v>3.45</v>
-      </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="G22" s="12">
+        <v>4.09</v>
+      </c>
+      <c r="H22" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="I22" s="12">
+        <v>3.35</v>
+      </c>
+      <c r="J22" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>2.35</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>2.25</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>2.31</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>1.66</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>2.17</v>
       </c>
-      <c r="G23" s="13">
-        <v>2.52</v>
-      </c>
-      <c r="H23" s="13">
-        <v>2.66</v>
-      </c>
-      <c r="I23" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="J23" s="13">
-        <v>2.56</v>
-      </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="G23" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2.67</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2.73</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13">
-        <v>4.22</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3.07</v>
-      </c>
-      <c r="D24" s="13">
-        <v>2.85</v>
-      </c>
-      <c r="E24" s="13">
-        <v>3.46</v>
-      </c>
-      <c r="F24" s="13">
-        <v>3.24</v>
-      </c>
-      <c r="G24" s="13">
-        <v>2.57</v>
-      </c>
-      <c r="H24" s="13">
-        <v>2.06</v>
-      </c>
-      <c r="I24" s="13">
-        <v>3.13</v>
-      </c>
-      <c r="J24" s="13">
-        <v>4.05</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>4.21</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3.04</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2.82</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="F24" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.99</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3.06</v>
+      </c>
+      <c r="J24" s="12">
+        <v>3.98</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>3.66</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>0.38</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>1.48</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>5.67</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>1.65</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>0.8</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>0.69</v>
       </c>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="9">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14">
-        <v>2.71</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2.85</v>
-      </c>
-      <c r="D26" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2.68</v>
-      </c>
-      <c r="F26" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="G26" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="H26" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="I26" s="14">
-        <v>2.97</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="B26" s="13">
+        <v>2.72</v>
+      </c>
+      <c r="C26" s="13">
         <v>2.86</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="D26" s="13">
+        <v>3.07</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2.69</v>
+      </c>
+      <c r="F26" s="13">
+        <v>3.07</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2.92</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2.63</v>
+      </c>
+      <c r="I26" s="13">
+        <v>3</v>
+      </c>
+      <c r="J26" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="K26" s="9">
+        <v>3.03</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
-        <v>2.71</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2.85</v>
-      </c>
-      <c r="D27" s="12">
-        <v>3.05</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2.68</v>
-      </c>
-      <c r="F27" s="12">
-        <v>3.05</v>
-      </c>
-      <c r="G27" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="H27" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="I27" s="12">
-        <v>2.97</v>
-      </c>
-      <c r="J27" s="12">
-        <v>2.86</v>
-      </c>
-      <c r="K27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/matuik.xlsx
+++ b/matuik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\web-tufe-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6046F-A597-4940-B032-BDD18AA61C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C5A6E-C46B-441A-9C78-A4F722803313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Gösterge</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>2025-10</t>
+  </si>
+  <si>
+    <t>2025-11</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +605,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/matuik.xlsx
+++ b/matuik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\web-tufe-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C5A6E-C46B-441A-9C78-A4F722803313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3D1C8-7402-4F8C-8A5B-D7B6F221EEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Gösterge</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>2025-11</t>
+  </si>
+  <si>
+    <t>2025-12</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -252,14 +255,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,893 +609,971 @@
       <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15">
-        <v>2.17</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1.97</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.65</v>
+      </c>
+      <c r="H2" s="10">
         <v>2.46</v>
       </c>
-      <c r="D2" s="15">
-        <v>2.52</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.98</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2.67</v>
-      </c>
-      <c r="H2" s="15">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I2" s="15">
-        <v>2.69</v>
-      </c>
-      <c r="J2" s="15">
-        <v>2.06</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2.04</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="14">
-        <v>2.59</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.82</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2.08</v>
-      </c>
-      <c r="F3" s="14">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14">
-        <v>2.27</v>
-      </c>
-      <c r="H3" s="14">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2.59</v>
-      </c>
-      <c r="J3" s="14">
-        <v>2.04</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>2.58</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.81</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2.57</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
-        <v>2.13</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="11">
         <v>2.11</v>
       </c>
-      <c r="D4" s="14">
-        <v>2.85</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2.23</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2.23</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2.29</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1.87</v>
-      </c>
-      <c r="I4" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1.94</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.84</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.21</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.91</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12">
-        <v>1.61</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2.35</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.27</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="11">
         <v>1.69</v>
       </c>
-      <c r="F5" s="12">
-        <v>1.52</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="F5" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.37</v>
+      </c>
+      <c r="H5" s="11">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I5" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="11">
+        <v>2.61</v>
+      </c>
+      <c r="J5" s="11">
         <v>1.65</v>
       </c>
-      <c r="K5" s="9">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>3.58</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.03</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>4.32</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>2.15</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>2.27</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>7.35</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.64</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>1.24</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>1.28</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="11">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1.95</v>
       </c>
-      <c r="C7" s="12">
-        <v>3.38</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="D7" s="11">
         <v>1.25</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>1.56</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1.54</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1.2</v>
       </c>
-      <c r="H7" s="12">
-        <v>4.38</v>
-      </c>
-      <c r="I7" s="12">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2.56</v>
-      </c>
-      <c r="K7" s="9">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I7" s="11">
+        <v>4.68</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2.58</v>
+      </c>
+      <c r="K7" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-1.4</v>
       </c>
-      <c r="C8" s="12">
-        <v>7.02</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11">
+        <v>7.05</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E8" s="11">
         <v>1.76</v>
       </c>
-      <c r="F8" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="12">
-        <v>5.07</v>
-      </c>
-      <c r="I8" s="12">
-        <v>5.58</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2.61</v>
-      </c>
-      <c r="K8" s="9">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I8" s="11">
+        <v>5.64</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2.66</v>
+      </c>
+      <c r="K8" s="11">
+        <v>-2.36</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
-        <v>-6.6</v>
-      </c>
-      <c r="C9" s="12">
-        <v>15.01</v>
-      </c>
-      <c r="D9" s="12">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="F9" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="G9" s="12">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="H9" s="12">
-        <v>6.27</v>
-      </c>
-      <c r="I9" s="12">
-        <v>4.97</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="K9" s="9">
-        <v>-5.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>-6.68</v>
+      </c>
+      <c r="C9" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-1.18</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4.43</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3.51</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-2.12</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6.22</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="11">
+        <v>-5.93</v>
+      </c>
+      <c r="L9" s="11">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1.96</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1.29</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1.28</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="12">
-        <v>4.21</v>
-      </c>
-      <c r="I10" s="12">
-        <v>6.03</v>
-      </c>
-      <c r="J10" s="12">
-        <v>4.26</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>2.27</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2.04</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4.29</v>
+      </c>
+      <c r="I10" s="11">
+        <v>6.15</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>4.7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>2.04</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>1.39</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0.97</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>3.83</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>3.9</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="11">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.18</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>2.61</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>1.17</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>1.46</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1.43</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>5.77</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>2.97</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>2.76</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="11">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="11">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>4.53</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.77</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>1.74</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1.51</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0.71</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>2.57</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>2.82</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>2.38</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.65</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1.27</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1.66</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1.38</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1.51</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.54</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1.49</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.32</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.81</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.83</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.82</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1.63</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.82</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="B15" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2.79</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1.81</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="G15" s="11">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="C16" s="12">
-        <v>-0.36</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2.06</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1.27</v>
-      </c>
-      <c r="G16" s="12">
-        <v>-0.83</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1.55</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>-0.73</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.48</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1.63</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>3.43</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>2.73</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>1.24</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>1.57</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0.73</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>2.1</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.91</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="11">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="11">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>1.26</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2.09</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>2.38</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>1.49</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>1.59</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>2.02</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>1.01</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0.95</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>0.67</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="11">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="11">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>-0.01</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>-0.06</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0.06</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>5.69</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>6.04</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>-0.03</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>2.42</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="11">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>4.78</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>1.33</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>7.04</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>2.65</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>4.17</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>1.91</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>0.22</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>5.7</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>5.47</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="11">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="11">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>3.4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
+        <v>2.83</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2.88</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.58</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3.24</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2.74</v>
+      </c>
+      <c r="I21" s="11">
         <v>2.84</v>
       </c>
-      <c r="D21" s="12">
+      <c r="J21" s="11">
+        <v>2.85</v>
+      </c>
+      <c r="K21" s="11">
         <v>2.88</v>
       </c>
-      <c r="E21" s="12">
-        <v>2.59</v>
-      </c>
-      <c r="F21" s="12">
-        <v>3.01</v>
-      </c>
-      <c r="G21" s="12">
-        <v>3.26</v>
-      </c>
-      <c r="H21" s="12">
-        <v>2.77</v>
-      </c>
-      <c r="I21" s="12">
-        <v>2.86</v>
-      </c>
-      <c r="J21" s="12">
-        <v>2.88</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="11">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="12">
-        <v>5.28</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D22" s="12">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E22" s="12">
-        <v>4.05</v>
-      </c>
-      <c r="F22" s="12">
-        <v>4.24</v>
-      </c>
-      <c r="G22" s="12">
-        <v>4.09</v>
-      </c>
-      <c r="H22" s="12">
-        <v>3.71</v>
-      </c>
-      <c r="I22" s="12">
-        <v>3.35</v>
-      </c>
-      <c r="J22" s="12">
-        <v>3.41</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>5.31</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4.21</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4.07</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3.69</v>
+      </c>
+      <c r="I22" s="11">
+        <v>3.32</v>
+      </c>
+      <c r="J22" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="K22" s="11">
+        <v>3.31</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="12">
-        <v>2.35</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="B23" s="11">
+        <v>2.33</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D23" s="11">
         <v>2.31</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>1.66</v>
       </c>
-      <c r="F23" s="12">
-        <v>2.17</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H23" s="12">
-        <v>2.67</v>
-      </c>
-      <c r="I23" s="12">
-        <v>2.73</v>
-      </c>
-      <c r="J23" s="12">
-        <v>2.57</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="11">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2.54</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2.76</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2.61</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12">
-        <v>4.21</v>
-      </c>
-      <c r="C24" s="12">
-        <v>3.04</v>
-      </c>
-      <c r="D24" s="12">
-        <v>2.82</v>
-      </c>
-      <c r="E24" s="12">
-        <v>3.41</v>
-      </c>
-      <c r="F24" s="12">
-        <v>3.18</v>
-      </c>
-      <c r="G24" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1.99</v>
-      </c>
-      <c r="I24" s="12">
-        <v>3.06</v>
-      </c>
-      <c r="J24" s="12">
-        <v>3.98</v>
-      </c>
-      <c r="K24" s="9">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3.03</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3.16</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2.48</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1.96</v>
+      </c>
+      <c r="I24" s="11">
+        <v>3.03</v>
+      </c>
+      <c r="J24" s="11">
+        <v>3.95</v>
+      </c>
+      <c r="K24" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>3.66</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>0.38</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>1.48</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>5.67</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>1.65</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>0.8</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>0.69</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="11">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="11">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="C26" s="13">
-        <v>2.86</v>
-      </c>
-      <c r="D26" s="13">
-        <v>3.07</v>
-      </c>
-      <c r="E26" s="13">
-        <v>2.69</v>
-      </c>
-      <c r="F26" s="13">
-        <v>3.07</v>
-      </c>
-      <c r="G26" s="13">
-        <v>2.92</v>
-      </c>
-      <c r="H26" s="13">
-        <v>2.63</v>
-      </c>
-      <c r="I26" s="13">
-        <v>3</v>
-      </c>
-      <c r="J26" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="B26" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3.04</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2.66</v>
+      </c>
+      <c r="F26" s="12">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="10"/>
+      <c r="G26" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2.94</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="L26" s="12">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
